--- a/Assets/InProject/Excels/EquipmentConfig.xlsx
+++ b/Assets/InProject/Excels/EquipmentConfig.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unitypro\SoilExperiment\SoilExperiment\Assets\InProject\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubrepository\test\SoilExperiment\Assets\InProject\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>string</t>
   </si>
@@ -98,34 +98,6 @@
   </si>
   <si>
     <t>UID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>顶目概况与区位</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计定位与构思</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>种植规划与设计</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>分区设计与节点</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>工程技术与措施</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>经济技术指标与预算</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>方案设计与分析</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -669,7 +641,7 @@
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -697,7 +669,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
@@ -714,7 +686,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -731,16 +703,14 @@
         <v>4</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
-        <v>1001</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B4" s="4"/>
       <c r="C4" s="3">
         <v>221</v>
       </c>
@@ -753,16 +723,14 @@
     </row>
     <row r="5" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
-        <v>1002</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>12</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B5" s="20"/>
       <c r="C5" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D5" s="3">
-        <v>402</v>
+        <v>442</v>
       </c>
       <c r="E5" s="3">
         <v>260</v>
@@ -770,16 +738,14 @@
     </row>
     <row r="6" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
-        <v>1003</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>17</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B6" s="20"/>
       <c r="C6" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D6" s="3">
-        <v>402</v>
+        <v>443</v>
       </c>
       <c r="E6" s="3">
         <v>260</v>
@@ -787,16 +753,14 @@
     </row>
     <row r="7" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
-        <v>1004</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B7" s="4"/>
       <c r="C7" s="3">
         <v>221</v>
       </c>
       <c r="D7" s="3">
-        <v>402</v>
+        <v>444</v>
       </c>
       <c r="E7" s="3">
         <v>260</v>
@@ -804,16 +768,14 @@
     </row>
     <row r="8" spans="1:5" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
-        <v>1005</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>14</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B8" s="4"/>
       <c r="C8" s="3">
         <v>221</v>
       </c>
       <c r="D8" s="3">
-        <v>402</v>
+        <v>445</v>
       </c>
       <c r="E8" s="3">
         <v>260</v>
@@ -821,16 +783,14 @@
     </row>
     <row r="9" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
-        <v>1006</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="3">
         <v>221</v>
       </c>
       <c r="D9" s="3">
-        <v>402</v>
+        <v>446</v>
       </c>
       <c r="E9" s="3">
         <v>260</v>
@@ -838,16 +798,14 @@
     </row>
     <row r="10" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
-        <v>1007</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B10" s="4"/>
       <c r="C10" s="3">
         <v>221</v>
       </c>
       <c r="D10" s="3">
-        <v>402</v>
+        <v>447</v>
       </c>
       <c r="E10" s="3">
         <v>260</v>
